--- a/ExelToJson/Assets/DataTable.xlsx
+++ b/ExelToJson/Assets/DataTable.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\whith_senior\ExelToJson\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winter\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C95303-3427-455E-A392-22568200919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F838C98-3813-4D03-829E-2B6EF3F76FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1237DF6-A2EB-4F24-BF48-85523AAD0E3D}"/>
+    <workbookView xWindow="6510" yWindow="3390" windowWidth="28005" windowHeight="17235" xr2:uid="{E1237DF6-A2EB-4F24-BF48-85523AAD0E3D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Difintion" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -75,6 +76,18 @@
   </si>
   <si>
     <t>드래곤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +494,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B148BE-FFC0-4466-8455-AD46E3096678}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D124FE66-A295-4F90-950C-36AA7062C032}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
